--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200609.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200609.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\ncov\COVID-19\data\unchecked\manual_collect\china\neimenggu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80D81D0-A665-4FA9-A4CB-17C57AF61D0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFE0E63-5A24-4D0C-AEC7-2458A68E470C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10920,50 +10920,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AG51" sqref="AG51:AI55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="13" customWidth="1"/>
+    <col min="3" max="3" width="31.84375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.3828125" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="44" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="21.25" style="26" customWidth="1"/>
-    <col min="16" max="19" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12.5" style="28" customWidth="1"/>
-    <col min="23" max="24" width="26.625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="21.23046875" style="26" customWidth="1"/>
+    <col min="16" max="19" width="12.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="12.4609375" style="28" customWidth="1"/>
+    <col min="23" max="24" width="26.61328125" style="13" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="7" style="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.84375" style="14" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18" style="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.61328125" style="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.15234375" style="13" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="20" style="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="25.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="13" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="31.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="21.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="31.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="21.84375" style="13" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="13" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="31" style="13" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="10.875" style="13"/>
+    <col min="46" max="46" width="5.15234375" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="17" customFormat="1" ht="15">
+    <row r="1" spans="1:46" s="17" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>3251</v>
       </c>
@@ -13936,11 +13936,11 @@
         <v>3298</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="24.75">
+    <row r="58" spans="1:35" ht="25">
       <c r="AA58" s="22"/>
       <c r="AB58"/>
     </row>
-    <row r="59" spans="1:35" ht="24.75">
+    <row r="59" spans="1:35" ht="25">
       <c r="AA59" s="22"/>
       <c r="AB59"/>
     </row>
@@ -13999,10 +13999,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
